--- a/demo-dashboard-1.xlsx
+++ b/demo-dashboard-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baha Tegar\Desktop\aspect-based-sentiment-analysis-demo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAB1539-74C4-4D6D-8129-95369D35EE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2F76D7-46BD-45CE-A322-56405BF9BEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{489A9BC2-66B7-413B-9366-3D8F02E0650D}"/>
   </bookViews>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2210,7 +2210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2269,7 +2269,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4176,7 +4175,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA18DCE9-853D-4AF9-9A7D-EBA5700694A6}" type="CELLRANGE">
+                    <a:fld id="{65C40E92-6FD7-4B0C-BF7A-561037A7061C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4209,7 +4208,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DD16C01-1B86-42DF-8C50-814D1E7DC619}" type="CELLRANGE">
+                    <a:fld id="{6A1B5073-6456-4CAA-8BB4-5A3BAED573F3}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4243,7 +4242,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82524E7A-D865-4EC5-8A88-B3FECF1166FB}" type="CELLRANGE">
+                    <a:fld id="{8C69DE73-E3C7-4082-A275-0A343F110784}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4413,7 +4412,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6434971F-B05D-4176-AC5F-6688FBCF2524}" type="CELLRANGE">
+                    <a:fld id="{DEB823BE-F205-46C6-B4D6-370B50D071C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4446,7 +4445,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29480F6C-43C5-4697-80EB-C80CD2BCAA10}" type="CELLRANGE">
+                    <a:fld id="{D221A335-47BD-4348-A026-2A5DE0DC5D51}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4480,7 +4479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C42717D-3A41-4B01-A534-9D83C63CED7A}" type="CELLRANGE">
+                    <a:fld id="{8F3A1722-5706-4C32-8C67-291DA45B902F}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4650,7 +4649,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2AE4F4F1-E0B0-477A-94C8-6F21884296F8}" type="CELLRANGE">
+                    <a:fld id="{4570ACE5-351D-4F2B-A264-E470B36CC542}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4683,7 +4682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86C72A61-6D6F-4561-9728-0852F160B78E}" type="CELLRANGE">
+                    <a:fld id="{FD9D2256-2459-4770-8677-1DF306B1A9DC}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4717,7 +4716,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B417B7D2-9787-4C14-BBA7-71E7381C42A3}" type="CELLRANGE">
+                    <a:fld id="{B1189910-303B-4A93-B7B9-AAC6E03E0816}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4879,7 +4878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB4AAF76-86FD-4C22-B314-9975D66A941E}" type="CELLRANGE">
+                    <a:fld id="{FD5B7B00-DD8A-479C-BCFD-81DDB9C3F462}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4912,7 +4911,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5829645A-D822-4C22-9151-2A4D95CE43CB}" type="CELLRANGE">
+                    <a:fld id="{70B277C4-AC3A-49A3-B4B7-9608C6E710B5}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4946,7 +4945,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A91158A-0823-43F7-9CA9-AE76C29148CD}" type="CELLRANGE">
+                    <a:fld id="{69BD300E-0DA7-41D4-9B23-51E50E7150A7}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6932,7 +6931,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="calculation!$D$6" max="25" min="1" page="10" val="4"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="calculation!$D$6" max="25" min="1" page="10"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7085,7 +7084,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="calculation!$AL$42:$AP$47" spid="_x0000_s7255"/>
+                  <a14:cameraTool cellRange="calculation!$AL$42:$AP$47" spid="_x0000_s7265"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7151,7 +7150,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="calculation!$V$76:$W$82" spid="_x0000_s7256"/>
+                  <a14:cameraTool cellRange="calculation!$V$76:$W$82" spid="_x0000_s7266"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7192,15 +7191,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>50371</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>82517</xdr:rowOff>
+      <xdr:colOff>103287</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>865</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>115650</xdr:rowOff>
+      <xdr:colOff>53781</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83901</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7230,15 +7229,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>48717</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76892</xdr:rowOff>
+      <xdr:colOff>91050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>566860</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110023</xdr:rowOff>
+      <xdr:colOff>609193</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57106</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7291,8 +7290,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4086517" y="1160752"/>
-          <a:ext cx="1222496" cy="791011"/>
+          <a:off x="4068071" y="1169823"/>
+          <a:ext cx="1222496" cy="797059"/>
           <a:chOff x="6126480" y="213360"/>
           <a:chExt cx="2872740" cy="1181100"/>
         </a:xfrm>
@@ -7433,6 +7432,7 @@
                 <a:ea typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>99</a:t>
             </a:fld>
             <a:endParaRPr lang="en-ID" sz="4400" b="1" kern="1200"/>
@@ -7468,8 +7468,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5500774" y="1169906"/>
-          <a:ext cx="1371236" cy="791011"/>
+          <a:off x="5482328" y="1178977"/>
+          <a:ext cx="1367306" cy="797059"/>
           <a:chOff x="6126481" y="213360"/>
           <a:chExt cx="3009580" cy="1181100"/>
         </a:xfrm>
@@ -7610,6 +7610,7 @@
                 <a:ea typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>41%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-ID" sz="8000" b="1" kern="1200"/>
@@ -7645,8 +7646,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7024473" y="1163161"/>
-          <a:ext cx="1266750" cy="791011"/>
+          <a:off x="7002097" y="1172232"/>
+          <a:ext cx="1260097" cy="797059"/>
           <a:chOff x="6093980" y="213360"/>
           <a:chExt cx="3042081" cy="1181100"/>
         </a:xfrm>
@@ -7787,6 +7788,7 @@
                 <a:ea typeface="Calibri"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t>8%</a:t>
             </a:fld>
             <a:endParaRPr lang="en-ID" sz="8000" b="1" kern="1200"/>
@@ -7860,8 +7862,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3003872" y="375818"/>
-          <a:ext cx="1222496" cy="714339"/>
+          <a:off x="2985426" y="378842"/>
+          <a:ext cx="1222496" cy="720386"/>
           <a:chOff x="6126480" y="213360"/>
           <a:chExt cx="2872740" cy="1181100"/>
         </a:xfrm>
@@ -7962,15 +7964,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>485923</xdr:colOff>
+          <xdr:colOff>487680</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>50213</xdr:rowOff>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1335064</xdr:colOff>
+          <xdr:colOff>1333500</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>80694</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7980,7 +7982,7 @@
                   <a14:compatExt spid="_x0000_s7222"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA449685-4949-B6C0-BC8B-B37BD8402B5F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000361C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8020,15 +8022,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>885438</xdr:colOff>
+          <xdr:colOff>883920</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>36149</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1045458</xdr:colOff>
+          <xdr:colOff>1043940</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>13289</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8078,7 +8080,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>350520</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>38099</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9217,7 +9219,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44F50DC6-C549-4DEF-B7BF-6CA3B027230A}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44F50DC6-C549-4DEF-B7BF-6CA3B027230A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J36:S69" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -9531,7 +9533,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DECED6D6-083F-495B-B321-2C5FA235A1C7}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DECED6D6-083F-495B-B321-2C5FA235A1C7}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="J7:W27" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -10118,8 +10120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D245CF-FE13-4EF5-8D3E-1E28DA56F218}">
   <dimension ref="C3:D6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E6" zoomScale="105" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10627,8 +10629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798CFC66-42D5-47EA-827A-FC9146198CF7}">
   <dimension ref="B1:AV211"/>
   <sheetViews>
-    <sheetView topLeftCell="V8" zoomScale="62" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="AM28" sqref="AM28"/>
+    <sheetView topLeftCell="G43" zoomScale="33" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10734,7 +10736,7 @@
         <v>467</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>441</v>
@@ -12482,25 +12484,25 @@
         <f>INDEX(TableAspect[Total],MATCH(AC43,TableAspect[UNIQUE],0))</f>
         <v>2</v>
       </c>
-      <c r="AL43" s="36" t="str">
+      <c r="AL43" s="14" t="str">
         <f>IF(INDEX(calculation!AH39:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AD39:$AD$69,calculation!$D$6))</f>
-        <v>variety</v>
+        <v>staff</v>
       </c>
       <c r="AM43" s="14">
         <f>IF(INDEX(calculation!AH39:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AE39:$AE$69,calculation!$D$6))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AN43" s="14">
         <f>IF(INDEX(calculation!AH39:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AF39:$AF$69,calculation!$D$6))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO43" s="14">
         <f>IF(INDEX(calculation!AH39:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AG39:$AG$69,calculation!$D$6))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP43" s="14">
         <f>IF(INDEX(calculation!AH39:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AH39:$AH$69,calculation!$D$6))</f>
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="10:42" x14ac:dyDescent="0.3">
@@ -12566,13 +12568,13 @@
         <f>INDEX(TableAspect[Total],MATCH(AC44,TableAspect[UNIQUE],0))</f>
         <v>2</v>
       </c>
-      <c r="AL44" s="36" t="str">
+      <c r="AL44" s="14" t="str">
         <f>IF(INDEX(calculation!AH40:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AD40:$AD$69,calculation!$D$6))</f>
-        <v>phone</v>
+        <v>store</v>
       </c>
       <c r="AM44" s="14">
         <f>IF(INDEX(calculation!AH40:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AE40:$AE$69,calculation!$D$6))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AN44" s="14">
         <f>IF(INDEX(calculation!AH40:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AF40:$AF$69,calculation!$D$6))</f>
@@ -12580,11 +12582,11 @@
       </c>
       <c r="AO44" s="14">
         <f>IF(INDEX(calculation!AH40:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AG40:$AG$69,calculation!$D$6))</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AP44" s="14">
         <f>IF(INDEX(calculation!AH40:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AH40:$AH$69,calculation!$D$6))</f>
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="10:42" x14ac:dyDescent="0.3">
@@ -12650,13 +12652,13 @@
         <f>INDEX(TableAspect[Total],MATCH(AC45,TableAspect[UNIQUE],0))</f>
         <v>1</v>
       </c>
-      <c r="AL45" s="36" t="str">
+      <c r="AL45" s="14" t="str">
         <f>IF(INDEX(calculation!AH41:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AD41:$AD$69,calculation!$D$6))</f>
-        <v>one</v>
+        <v>service</v>
       </c>
       <c r="AM45" s="14">
         <f>IF(INDEX(calculation!AH41:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AE41:$AE$69,calculation!$D$6))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN45" s="14">
         <f>IF(INDEX(calculation!AH41:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AF41:$AF$69,calculation!$D$6))</f>
@@ -12664,11 +12666,11 @@
       </c>
       <c r="AO45" s="14">
         <f>IF(INDEX(calculation!AH41:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AG41:$AG$69,calculation!$D$6))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP45" s="14">
         <f>IF(INDEX(calculation!AH41:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AH41:$AH$69,calculation!$D$6))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="10:42" x14ac:dyDescent="0.3">
@@ -12736,13 +12738,13 @@
         <f>INDEX(TableAspect[Total],MATCH(AC46,TableAspect[UNIQUE],0))</f>
         <v>1</v>
       </c>
-      <c r="AL46" s="36" t="str">
+      <c r="AL46" s="14" t="str">
         <f>IF(INDEX(calculation!AH42:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AD42:$AD$69,calculation!$D$6))</f>
-        <v>warranty service</v>
+        <v>variety</v>
       </c>
       <c r="AM46" s="14">
         <f>IF(INDEX(calculation!AH42:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AE42:$AE$69,calculation!$D$6))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN46" s="14">
         <f>IF(INDEX(calculation!AH42:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AF42:$AF$69,calculation!$D$6))</f>
@@ -12754,7 +12756,7 @@
       </c>
       <c r="AP46" s="14">
         <f>IF(INDEX(calculation!AH42:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AH42:$AH$69,calculation!$D$6))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="10:42" x14ac:dyDescent="0.3">
@@ -12826,25 +12828,25 @@
         <f>INDEX(TableAspect[Total],MATCH(AC47,TableAspect[UNIQUE],0))</f>
         <v>1</v>
       </c>
-      <c r="AL47" s="36" t="str">
+      <c r="AL47" s="14" t="str">
         <f>IF(INDEX(calculation!AH43:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AD43:$AD$69,calculation!$D$6))</f>
-        <v>warranty</v>
+        <v>phone</v>
       </c>
       <c r="AM47" s="14">
         <f>IF(INDEX(calculation!AH43:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AE43:$AE$69,calculation!$D$6))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN47" s="14">
         <f>IF(INDEX(calculation!AH43:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AF43:$AF$69,calculation!$D$6))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO47" s="14">
         <f>IF(INDEX(calculation!AH43:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AG43:$AG$69,calculation!$D$6))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP47" s="14">
         <f>IF(INDEX(calculation!AH43:$AH$69,calculation!$D$6)=0,"",INDEX(calculation!AH43:$AH$69,calculation!$D$6))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="10:42" x14ac:dyDescent="0.3">
@@ -14351,7 +14353,7 @@
       </c>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="10:34" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="10:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="J76" s="13">
         <f>ROW(INDEX(Table1[id],MATCH(calculation!$D$4,Table1[topic_dominant],0))) + ROWS($J$75:J75) - 1</f>
         <v>23</v>
@@ -14361,7 +14363,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J76,K76))</f>
+        <f t="shared" ref="L76:L95" ca="1" si="8">INDIRECT("database!"&amp;ADDRESS(J76,K76))</f>
         <v>57</v>
       </c>
       <c r="M76" s="13">
@@ -14395,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J77,K77))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>69</v>
       </c>
       <c r="M77" s="13">
@@ -14422,7 +14424,7 @@
 </v>
       </c>
     </row>
-    <row r="78" spans="10:34" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="10:34" ht="57.6" x14ac:dyDescent="0.3">
       <c r="J78" s="13">
         <f>ROW(INDEX(Table1[id],MATCH(calculation!$D$4,Table1[topic_dominant],0))) + ROWS($J$75:J77) - 1</f>
         <v>25</v>
@@ -14432,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J78,K78))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
       <c r="M78" s="13">
@@ -14459,7 +14461,7 @@
 </v>
       </c>
     </row>
-    <row r="79" spans="10:34" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="10:34" ht="72" x14ac:dyDescent="0.3">
       <c r="J79" s="13">
         <f>ROW(INDEX(Table1[id],MATCH(calculation!$D$4,Table1[topic_dominant],0))) + ROWS($J$75:J78) - 1</f>
         <v>26</v>
@@ -14469,7 +14471,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J79,K79))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>37</v>
       </c>
       <c r="M79" s="13">
@@ -14506,7 +14508,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J80,K80))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>35</v>
       </c>
       <c r="M80" s="13">
@@ -14542,7 +14544,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J81,K81))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>29</v>
       </c>
       <c r="M81" s="13">
@@ -14568,7 +14570,7 @@
 </v>
       </c>
     </row>
-    <row r="82" spans="10:23" ht="72" x14ac:dyDescent="0.3">
+    <row r="82" spans="10:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="J82" s="13">
         <f>ROW(INDEX(Table1[id],MATCH(calculation!$D$4,Table1[topic_dominant],0))) + ROWS($J$75:J81) - 1</f>
         <v>29</v>
@@ -14578,7 +14580,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J82,K82))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>71</v>
       </c>
       <c r="M82" s="13">
@@ -14605,7 +14607,7 @@
 </v>
       </c>
     </row>
-    <row r="83" spans="10:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="10:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="J83" s="13">
         <f>ROW(INDEX(Table1[id],MATCH(calculation!$D$4,Table1[topic_dominant],0))) + ROWS($J$75:J82) - 1</f>
         <v>30</v>
@@ -14615,7 +14617,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J83,K83))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>74</v>
       </c>
       <c r="M83" s="13">
@@ -14633,7 +14635,7 @@
       </c>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="10:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="10:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="J84" s="13">
         <f>ROW(INDEX(Table1[id],MATCH(calculation!$D$4,Table1[topic_dominant],0))) + ROWS($J$75:J83) - 1</f>
         <v>31</v>
@@ -14643,7 +14645,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J84,K84))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>47</v>
       </c>
       <c r="M84" s="13">
@@ -14662,7 +14664,7 @@
       </c>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="10:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="10:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="J85" s="13">
         <f>ROW(INDEX(Table1[id],MATCH(calculation!$D$4,Table1[topic_dominant],0))) + ROWS($J$75:J84) - 1</f>
         <v>32</v>
@@ -14672,7 +14674,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J85,K85))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>36</v>
       </c>
       <c r="M85" s="13">
@@ -14690,7 +14692,7 @@
       </c>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="10:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="10:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="J86" s="13">
         <f>ROW(INDEX(Table1[id],MATCH(calculation!$D$4,Table1[topic_dominant],0))) + ROWS($J$75:J85) - 1</f>
         <v>33</v>
@@ -14700,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J86,K86))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>48</v>
       </c>
       <c r="M86" s="13">
@@ -14720,7 +14722,7 @@
       </c>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="10:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="10:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="J87" s="13">
         <f>ROW(INDEX(Table1[id],MATCH(calculation!$D$4,Table1[topic_dominant],0))) + ROWS($J$75:J86) - 1</f>
         <v>34</v>
@@ -14730,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J87,K87))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>56</v>
       </c>
       <c r="M87" s="13">
@@ -14758,7 +14760,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J88,K88))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>31</v>
       </c>
       <c r="M88" s="13">
@@ -14776,7 +14778,7 @@
       </c>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="10:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="10:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="J89" s="13">
         <f>ROW(INDEX(Table1[id],MATCH(calculation!$D$4,Table1[topic_dominant],0))) + ROWS($J$75:J88) - 1</f>
         <v>36</v>
@@ -14786,7 +14788,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J89,K89))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>52</v>
       </c>
       <c r="M89" s="13">
@@ -14805,7 +14807,7 @@
       </c>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="10:23" ht="72" x14ac:dyDescent="0.3">
+    <row r="90" spans="10:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="J90" s="13">
         <f>ROW(INDEX(Table1[id],MATCH(calculation!$D$4,Table1[topic_dominant],0))) + ROWS($J$75:J89) - 1</f>
         <v>37</v>
@@ -14815,7 +14817,7 @@
         <v>1</v>
       </c>
       <c r="L90" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J90,K90))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>63</v>
       </c>
       <c r="M90" s="13">
@@ -14833,7 +14835,7 @@
       </c>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="10:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="10:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="J91" s="13">
         <f>ROW(INDEX(Table1[id],MATCH(calculation!$D$4,Table1[topic_dominant],0))) + ROWS($J$75:J90) - 1</f>
         <v>38</v>
@@ -14843,7 +14845,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J91,K91))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>65</v>
       </c>
       <c r="M91" s="13">
@@ -14862,7 +14864,7 @@
       </c>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="10:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="10:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="J92" s="13">
         <f>ROW(INDEX(Table1[id],MATCH(calculation!$D$4,Table1[topic_dominant],0))) + ROWS($J$75:J91) - 1</f>
         <v>39</v>
@@ -14872,7 +14874,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J92,K92))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>82</v>
       </c>
       <c r="M92" s="13">
@@ -14890,7 +14892,7 @@
       </c>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="10:23" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="10:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="J93" s="13">
         <f>ROW(INDEX(Table1[id],MATCH(calculation!$D$4,Table1[topic_dominant],0))) + ROWS($J$75:J92) - 1</f>
         <v>40</v>
@@ -14900,7 +14902,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J93,K93))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>86</v>
       </c>
       <c r="M93" s="13">
@@ -14928,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J94,K94))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>9</v>
       </c>
       <c r="M94" s="13">
@@ -14956,7 +14958,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="13">
-        <f ca="1">INDIRECT("database!"&amp;ADDRESS(J95,K95))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>14</v>
       </c>
       <c r="M95" s="13">
@@ -15669,7 +15671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61731887-CC8B-49D5-B3FD-A1EABF958FDD}">
   <dimension ref="A1:T156"/>
   <sheetViews>
-    <sheetView zoomScale="74" workbookViewId="0">
+    <sheetView zoomScale="72" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/demo-dashboard-1.xlsx
+++ b/demo-dashboard-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baha Tegar\Desktop\aspect-based-sentiment-analysis-demo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2F76D7-46BD-45CE-A322-56405BF9BEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC52244E-FC3E-405D-8C0C-9EB6291D9BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{489A9BC2-66B7-413B-9366-3D8F02E0650D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{489A9BC2-66B7-413B-9366-3D8F02E0650D}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="7" r:id="rId1"/>
@@ -23,8 +23,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,6 +36,15 @@
           <x15:modelTable id="Table2" name="Table2" connection="WorksheetConnection_dashboard-sentiment.xlsx!Table2"/>
         </x15:modelTables>
       </x15:dataModel>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4175,7 +4184,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65C40E92-6FD7-4B0C-BF7A-561037A7061C}" type="CELLRANGE">
+                    <a:fld id="{29F01C69-58CF-4AC1-9403-5AF5E761D0C7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4208,7 +4217,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A1B5073-6456-4CAA-8BB4-5A3BAED573F3}" type="CELLRANGE">
+                    <a:fld id="{1A0F8695-8D6B-406C-B05A-82D0BD044C10}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4242,7 +4251,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C69DE73-E3C7-4082-A275-0A343F110784}" type="CELLRANGE">
+                    <a:fld id="{91E09F41-7438-412D-B4D8-8DB49C0F178D}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4412,7 +4421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DEB823BE-F205-46C6-B4D6-370B50D071C2}" type="CELLRANGE">
+                    <a:fld id="{572E7051-8250-4975-BDF5-9BED3BF0F60A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4445,7 +4454,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D221A335-47BD-4348-A026-2A5DE0DC5D51}" type="CELLRANGE">
+                    <a:fld id="{3045FF54-E640-4EEE-8B51-696916249132}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4479,7 +4488,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F3A1722-5706-4C32-8C67-291DA45B902F}" type="CELLRANGE">
+                    <a:fld id="{BA5E0DE0-9D94-422C-A29F-F8ADAA043AD0}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4649,7 +4658,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4570ACE5-351D-4F2B-A264-E470B36CC542}" type="CELLRANGE">
+                    <a:fld id="{B0F8D26D-A1C2-40BD-A609-738EE2B6DB27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4682,7 +4691,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD9D2256-2459-4770-8677-1DF306B1A9DC}" type="CELLRANGE">
+                    <a:fld id="{831F5233-C256-41A3-8481-20174C385A11}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4716,7 +4725,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1189910-303B-4A93-B7B9-AAC6E03E0816}" type="CELLRANGE">
+                    <a:fld id="{787F7988-A7E9-456E-AF80-E1CA256B521C}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4878,7 +4887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD5B7B00-DD8A-479C-BCFD-81DDB9C3F462}" type="CELLRANGE">
+                    <a:fld id="{8F9AF6AA-EC05-4005-BC5A-6EA7B7B3D293}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4911,7 +4920,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70B277C4-AC3A-49A3-B4B7-9608C6E710B5}" type="CELLRANGE">
+                    <a:fld id="{0316AD41-544B-45EC-8AE7-FE1A711C46A1}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4945,7 +4954,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69BD300E-0DA7-41D4-9B23-51E50E7150A7}" type="CELLRANGE">
+                    <a:fld id="{43CBC36D-AD2A-4147-AF73-F0EE568C60D4}" type="CELLRANGE">
                       <a:rPr lang="en-ID"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7084,7 +7093,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="calculation!$AL$42:$AP$47" spid="_x0000_s7265"/>
+                  <a14:cameraTool cellRange="calculation!$AL$42:$AP$47" spid="_x0000_s7291"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7150,7 +7159,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="calculation!$V$76:$W$82" spid="_x0000_s7266"/>
+                  <a14:cameraTool cellRange="calculation!$V$76:$W$82" spid="_x0000_s7292"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7290,8 +7299,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4068071" y="1169823"/>
-          <a:ext cx="1222496" cy="797059"/>
+          <a:off x="4082668" y="1172297"/>
+          <a:ext cx="1222496" cy="798708"/>
           <a:chOff x="6126480" y="213360"/>
           <a:chExt cx="2872740" cy="1181100"/>
         </a:xfrm>
@@ -7468,8 +7477,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5482328" y="1178977"/>
-          <a:ext cx="1367306" cy="797059"/>
+          <a:off x="5496925" y="1181451"/>
+          <a:ext cx="1364502" cy="798708"/>
           <a:chOff x="6126481" y="213360"/>
           <a:chExt cx="3009580" cy="1181100"/>
         </a:xfrm>
@@ -7646,8 +7655,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7002097" y="1172232"/>
-          <a:ext cx="1260097" cy="797059"/>
+          <a:off x="7013890" y="1174706"/>
+          <a:ext cx="1265788" cy="798708"/>
           <a:chOff x="6093980" y="213360"/>
           <a:chExt cx="3042081" cy="1181100"/>
         </a:xfrm>
@@ -7862,8 +7871,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2985426" y="378842"/>
-          <a:ext cx="1222496" cy="720386"/>
+          <a:off x="3000023" y="379667"/>
+          <a:ext cx="1222496" cy="722035"/>
           <a:chOff x="6126480" y="213360"/>
           <a:chExt cx="2872740" cy="1181100"/>
         </a:xfrm>
@@ -9219,7 +9228,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44F50DC6-C549-4DEF-B7BF-6CA3B027230A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44F50DC6-C549-4DEF-B7BF-6CA3B027230A}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J36:S69" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -9533,7 +9542,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DECED6D6-083F-495B-B321-2C5FA235A1C7}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DECED6D6-083F-495B-B321-2C5FA235A1C7}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="J7:W27" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -10120,8 +10129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D245CF-FE13-4EF5-8D3E-1E28DA56F218}">
   <dimension ref="C3:D6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E6" zoomScale="105" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" topLeftCell="D2" zoomScale="88" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10629,8 +10638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798CFC66-42D5-47EA-827A-FC9146198CF7}">
   <dimension ref="B1:AV211"/>
   <sheetViews>
-    <sheetView topLeftCell="G43" zoomScale="33" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="67" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="AC43" sqref="AC43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
